--- a/biology/Zoologie/Ebenaqua/Ebenaqua.xlsx
+++ b/biology/Zoologie/Ebenaqua/Ebenaqua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ebenaqua ritchiei
 Ebenaqua est un genre fossile de poissons à nageoires rayonnées de l’ordre également fossile des Bobasatraniiformes qui ont vécu au cours du Changhsingien du Lopingien du Permien supérieur. Ce genre n'est représenté que par une seule espèce fossile, Ebenaqua agilis.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ebenaqua et l'espèce Ebenaqua ritchiei sont décrits en 1983 par les paléontologues australiens Kenton Stewart Wall Campbell (d) et Le Duy Phuoc[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ebenaqua et l'espèce Ebenaqua ritchiei sont décrits en 1983 par les paléontologues australiens Kenton Stewart Wall Campbell (d) et Le Duy Phuoc.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses restes fossiles ont été mis au jour en Australie, dans l’État du Queensland.
 </t>
